--- a/performance-tables/2017/abbreviations.xlsx
+++ b/performance-tables/2017/abbreviations.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\!!Secure Data\SCAAT\2017\KS4\Metadata\To send to web team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\andy\Documents\Work docs\Sprint 41\STG import 2\KS5 results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Abbreviations" sheetId="1" r:id="rId1"/>
+    <sheet name="KS4 and 16-18 Abbreviations" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>AC</t>
   </si>
@@ -134,9 +129,6 @@
     <t>NEW</t>
   </si>
   <si>
-    <t>New institution</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
@@ -185,9 +177,6 @@
     <t>Specialist designated college</t>
   </si>
   <si>
-    <t>Tertiary college</t>
-  </si>
-  <si>
     <t>Art, design and performing arts college</t>
   </si>
   <si>
@@ -200,9 +189,15 @@
     <t>Academy 16-19 converter</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions policy (ADMPOL): </t>
+  </si>
+  <si>
     <t>Abbreviations used in the csv and excel Download Data files.</t>
   </si>
   <si>
+    <t>Types of further education (FE) institutions:</t>
+  </si>
+  <si>
     <t>INDSPEC</t>
   </si>
   <si>
@@ -236,80 +231,74 @@
     <t>Academy converter - special school</t>
   </si>
   <si>
+    <t>If a school converted to an academy during the 2016/17 academic year then the name of the academy is shown in the SCHNAME_AC field.</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>FESI</t>
+  </si>
+  <si>
     <t>NP</t>
   </si>
   <si>
     <t>Not published - for example we do not publish Progress 8 data for independent schools and independent special schools, or breakdowns by disadvantaged and non-disadvantaged pupils for independent schools, independent special schools and non-maintained special schools.</t>
   </si>
   <si>
+    <t>LOWCOV</t>
+  </si>
+  <si>
+    <t>Low coverage: indicates that a school’s Progress 8 or value added measures have been suppressed because coverage is less than 50% of the cohort</t>
+  </si>
+  <si>
+    <t>Further Education Sector Institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMPOL_2017 (Admissions policy - new definition from 2017 onwards) </t>
+  </si>
+  <si>
+    <t>Non-selective in highly selective area</t>
+  </si>
+  <si>
+    <t>OTHER NON SEL</t>
+  </si>
+  <si>
+    <t>Other non-selective</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>NON SEL IN HIGHLY SEL AREA</t>
+  </si>
+  <si>
     <t>The KS4 and KS5 metadata files provide descriptions of all the fields included in the download csv and excel data files.</t>
   </si>
   <si>
-    <t>FESI</t>
-  </si>
-  <si>
-    <t>Further Education Sector Institution</t>
-  </si>
-  <si>
-    <t>UTC (university technical college)</t>
+    <t>SS</t>
   </si>
   <si>
     <t>Studio school</t>
   </si>
   <si>
-    <t>Types of further education (FE) institutions:</t>
-  </si>
-  <si>
-    <t>LOWCOV</t>
-  </si>
-  <si>
-    <t>Low coverage: indicates that a school’s Progress 8 or value added measures have been suppressed because coverage is less than 50% of the cohort</t>
-  </si>
-  <si>
-    <t>NON SEL IN HIGHLY SEL AREA</t>
-  </si>
-  <si>
-    <t>OTHER NON SEL</t>
-  </si>
-  <si>
-    <t>Non-selective schools in highly selective areas</t>
-  </si>
-  <si>
-    <t>Other non-selective schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admissions policy 2017 onwards (ADMPOL_2017): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admissions policy pre 2017 (ADMPOL): </t>
-  </si>
-  <si>
-    <t>The 2017 secondary and 16-18 performance tables publish information for schools and colleges based on their status at 12 September 2016.</t>
-  </si>
-  <si>
-    <t>If a school converted to an academy during the 2016/17 academic year then the name of the academy is shown in the SCHNAME_AC field.</t>
-  </si>
-  <si>
-    <t>2017 KS4 and KS5/16-18 Performance Tables</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>SUPP*</t>
-  </si>
-  <si>
-    <t>There has been a delay in the inclusion of some exam results from an awarding organisation for this school or college. We will update this data as soon as possible.</t>
+    <t>University Technical College</t>
+  </si>
+  <si>
+    <t>New institution (school or college which opened on or after 12 September 2016)</t>
+  </si>
+  <si>
+    <t>2017 KS4 and 16-18 Performance Tables</t>
+  </si>
+  <si>
+    <t>The 2017 secondary (KS4) and 16-18 performance tables publish information for schools and colleges based on their status on 12 September 2016.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,17 +338,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF1F3864"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,16 +377,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -402,19 +402,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,6 +517,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -543,6 +569,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -718,29 +761,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,7 +788,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5"/>
     </row>
@@ -757,63 +797,63 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C5"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -822,33 +862,32 @@
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -857,7 +896,7 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -866,79 +905,78 @@
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="A19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C20"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C21"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C22"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C23"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -947,7 +985,7 @@
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -957,284 +995,271 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+    </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>77</v>
+      <c r="A29" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+    </row>
+    <row r="45" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3" t="s">
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="27"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="14"/>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="10"/>
+      <c r="B55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="10"/>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="13"/>
+      <c r="A57" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="10"/>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="11"/>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A62" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="A37:B42">
-    <sortCondition ref="A37:A42"/>
+  <sortState ref="A6:B27">
+    <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>